--- a/Doval Constructions/35973/struct.xlsx
+++ b/Doval Constructions/35973/struct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Doval Constructions\35973\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59855870-D1A6-411D-B782-FCE05149B25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3391ADD-EBE6-4954-AE4C-BCD3F15AE219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="1320" windowWidth="28890" windowHeight="19455" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
+    <workbookView xWindow="10440" yWindow="1095" windowWidth="26700" windowHeight="17625" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="struct" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>resource</t>
   </si>
@@ -59,6 +59,42 @@
   </si>
   <si>
     <t>Tier 9</t>
+  </si>
+  <si>
+    <t>Concrete Works</t>
+  </si>
+  <si>
+    <t>Installation of Insitu Stormwater Structures</t>
+  </si>
+  <si>
+    <t>Installation of Precast Pits</t>
+  </si>
+  <si>
+    <t>Linemarking</t>
+  </si>
+  <si>
+    <t>Minor Concrete Works (Kerb)</t>
+  </si>
+  <si>
+    <t>Stormwater Pipe Installation</t>
+  </si>
+  <si>
+    <t>Unbound Granular Pavements</t>
+  </si>
+  <si>
+    <t>Landscaping</t>
+  </si>
+  <si>
+    <t>Reinforcement</t>
+  </si>
+  <si>
+    <t>Woodlands Drive</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>Underwood Road</t>
   </si>
 </sst>
 </file>
@@ -919,11 +955,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E815DE-B877-4AFA-B9B2-ED8E95723021}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -966,6 +1008,166 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
